--- a/pred_ohlcv/54_23/2019-10-14 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-14 HYC ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3474,7 +3474,7 @@
         <v>8.09</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>8.06</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -3543,7 +3543,7 @@
         <v>7.92</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>7.92</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3842,7 +3842,7 @@
         <v>8.01</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -3865,7 +3865,7 @@
         <v>8.02</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -3888,7 +3888,7 @@
         <v>8.02</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>8.02</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -3934,7 +3934,7 @@
         <v>8.01</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -3957,7 +3957,7 @@
         <v>7.99</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>7.97</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="G437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="G438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="G439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="G440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="G441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -10535,7 +10535,7 @@
         <v>7.37</v>
       </c>
       <c r="F442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="G446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -10719,7 +10719,7 @@
         <v>7.2</v>
       </c>
       <c r="F450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -10857,7 +10857,7 @@
         <v>7.16</v>
       </c>
       <c r="F456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="G460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="G461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="G462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="G463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="G465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="G466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="G467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="G468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="G475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="G476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -12106,6 +12106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>